--- a/bioSample/bioSample_1800.xlsx
+++ b/bioSample/bioSample_1800.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C22527E-BFF9-9B4E-BB61-AAA26007A4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085BBEF-FE3D-E54F-B5EB-A24B78936E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="460" windowWidth="16100" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="460" windowWidth="23640" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="43">
   <si>
     <t>harvestDate</t>
   </si>
@@ -34,21 +34,12 @@
     <t>experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
-  </si>
-  <si>
     <t>strain</t>
   </si>
   <si>
     <t>genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
-  </si>
-  <si>
-    <t>inductionDelay</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -155,6 +146,9 @@
   </si>
   <si>
     <t>TYD2014</t>
+  </si>
+  <si>
+    <t>TDY2187</t>
   </si>
 </sst>
 </file>
@@ -556,15 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D52"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,1474 +586,1474 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3">
-        <v>90</v>
-      </c>
-      <c r="L3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8">
-        <v>90</v>
-      </c>
-      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10">
-        <v>90</v>
-      </c>
-      <c r="L10">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>90</v>
-      </c>
-      <c r="L12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15">
-        <v>90</v>
-      </c>
-      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16">
-        <v>90</v>
-      </c>
-      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17">
-        <v>90</v>
-      </c>
-      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>90</v>
-      </c>
-      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>90</v>
-      </c>
-      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20">
-        <v>90</v>
-      </c>
-      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>90</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22">
-        <v>90</v>
-      </c>
-      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23">
-        <v>90</v>
-      </c>
-      <c r="L23">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>90</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24">
-        <v>90</v>
-      </c>
-      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>90</v>
+      </c>
+      <c r="I24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25">
-        <v>90</v>
-      </c>
-      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+      <c r="I25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>90</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="L26">
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <v>90</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27">
-        <v>90</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28">
-        <v>90</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29">
-        <v>90</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30">
-        <v>90</v>
-      </c>
-      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>90</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31">
-        <v>90</v>
-      </c>
-      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+      <c r="I31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32">
-        <v>90</v>
-      </c>
-      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>90</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33">
-        <v>90</v>
-      </c>
-      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34">
-        <v>90</v>
-      </c>
-      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>90</v>
+      </c>
+      <c r="I34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35">
-        <v>90</v>
-      </c>
-      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>90</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36">
-        <v>90</v>
-      </c>
-      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>90</v>
+      </c>
+      <c r="I36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37">
-        <v>90</v>
-      </c>
-      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>90</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38">
-        <v>90</v>
-      </c>
-      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39">
-        <v>90</v>
-      </c>
-      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>90</v>
+      </c>
+      <c r="I39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40">
-        <v>90</v>
-      </c>
-      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <v>90</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41">
-        <v>90</v>
-      </c>
-      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>90</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42">
-        <v>90</v>
-      </c>
-      <c r="L42">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>90</v>
+      </c>
+      <c r="I42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43">
-        <v>90</v>
-      </c>
-      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>90</v>
+      </c>
+      <c r="I43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
       </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44">
-        <v>90</v>
-      </c>
-      <c r="L44">
+      <c r="H44">
+        <v>90</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
       </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45">
-        <v>90</v>
-      </c>
-      <c r="L45">
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
       </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46">
-        <v>90</v>
-      </c>
-      <c r="L46">
+      <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47">
-        <v>90</v>
-      </c>
-      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48">
-        <v>90</v>
-      </c>
-      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49">
-        <v>90</v>
-      </c>
-      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>90</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50">
-        <v>90</v>
-      </c>
-      <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>90</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51">
-        <v>90</v>
-      </c>
-      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>90</v>
+      </c>
+      <c r="I51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52">
-        <v>90</v>
-      </c>
-      <c r="L52">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>90</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
     </row>

--- a/bioSample/bioSample_1800.xlsx
+++ b/bioSample/bioSample_1800.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -274,7 +274,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bioSample/bioSample_1800.xlsx
+++ b/bioSample/bioSample_1800.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="46">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_00841.CNAG_06339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDYNA</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_06327</t>
@@ -175,6 +172,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -258,8 +256,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1799,11 +1797,8 @@
       <c r="D47" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="F47" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>16</v>
@@ -1828,11 +1823,8 @@
       <c r="D48" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="F48" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>16</v>
@@ -1857,11 +1849,8 @@
       <c r="D49" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="F49" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>16</v>
@@ -1886,11 +1875,8 @@
       <c r="D50" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F50" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>16</v>
@@ -1915,11 +1901,8 @@
       <c r="D51" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F51" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>16</v>
@@ -1944,11 +1927,8 @@
       <c r="D52" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F52" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>16</v>

--- a/bioSample/bioSample_1800.xlsx
+++ b/bioSample/bioSample_1800.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="47">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_00841.CNAG_06339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2188</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_06327</t>
@@ -256,8 +259,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47:E52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L50" activeCellId="0" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1797,8 +1800,11 @@
       <c r="D47" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E47" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F47" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>16</v>
@@ -1809,6 +1815,9 @@
       <c r="I47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J47" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1823,8 +1832,11 @@
       <c r="D48" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E48" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F48" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>16</v>
@@ -1835,6 +1847,9 @@
       <c r="I48" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J48" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1849,8 +1864,11 @@
       <c r="D49" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E49" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F49" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>16</v>
@@ -1861,6 +1879,9 @@
       <c r="I49" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J49" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1876,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>16</v>
@@ -1887,6 +1908,9 @@
       <c r="I50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J50" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1902,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>16</v>
@@ -1913,6 +1937,9 @@
       <c r="I51" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J51" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -1928,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>16</v>
@@ -1938,6 +1965,9 @@
       </c>
       <c r="I52" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_1800.xlsx
+++ b/bioSample/bioSample_1800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCEC5E7-1EEF-5744-8C35-A4E109233780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19A202-A656-2244-B905-E6A5A5FBC239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="540" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="50">
   <si>
     <t>harvestDate</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>TDY2024</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>DMEM</t>
   </si>
 </sst>
 </file>
@@ -182,6 +188,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -526,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,25 +570,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -601,19 +611,22 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
       </c>
       <c r="M2">
+        <v>90</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -633,19 +646,22 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
       </c>
       <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -665,19 +681,22 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
       </c>
       <c r="M4">
+        <v>90</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -700,22 +719,25 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
       </c>
       <c r="M5">
+        <v>90</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -738,22 +760,25 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
       </c>
       <c r="M6">
+        <v>90</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -776,22 +801,25 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
       </c>
       <c r="M7">
+        <v>90</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -814,22 +842,25 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
       </c>
       <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -852,22 +883,25 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
       </c>
       <c r="M9">
+        <v>90</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -890,22 +924,25 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
       </c>
       <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -928,22 +965,25 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
       </c>
       <c r="M11">
+        <v>90</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -966,22 +1006,25 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
       </c>
       <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1004,22 +1047,25 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
       </c>
       <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1048,25 +1094,28 @@
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
       </c>
       <c r="M14">
+        <v>90</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
       <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1095,25 +1144,28 @@
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
       </c>
       <c r="M15">
+        <v>90</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
       <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1142,25 +1194,28 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
       </c>
       <c r="M16">
+        <v>90</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
       <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1189,25 +1244,28 @@
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
       </c>
       <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
       <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1236,25 +1294,28 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
       </c>
       <c r="M18">
+        <v>90</v>
+      </c>
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
       <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1283,25 +1344,28 @@
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
       </c>
       <c r="M19">
+        <v>90</v>
+      </c>
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
       <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1330,25 +1394,28 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
       </c>
       <c r="M20">
+        <v>90</v>
+      </c>
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="N20" t="s">
-        <v>25</v>
-      </c>
       <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1377,25 +1444,28 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
       </c>
       <c r="M21">
+        <v>90</v>
+      </c>
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
       <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1424,25 +1494,28 @@
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
       </c>
       <c r="M22">
+        <v>90</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
       <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1462,19 +1535,22 @@
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
       </c>
       <c r="M23">
+        <v>90</v>
+      </c>
+      <c r="N23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1494,19 +1570,22 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
       </c>
       <c r="M24">
+        <v>90</v>
+      </c>
+      <c r="N24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1526,19 +1605,22 @@
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
       </c>
       <c r="M25">
+        <v>90</v>
+      </c>
+      <c r="N25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1561,22 +1643,25 @@
         <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
       </c>
       <c r="M26">
+        <v>90</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1599,22 +1684,25 @@
         <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
       </c>
       <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1637,22 +1725,25 @@
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
       </c>
       <c r="M28">
+        <v>90</v>
+      </c>
+      <c r="N28">
         <v>3</v>
       </c>
-      <c r="N28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1675,22 +1766,25 @@
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
       </c>
       <c r="M29">
+        <v>90</v>
+      </c>
+      <c r="N29">
         <v>1</v>
       </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1713,22 +1807,25 @@
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
       </c>
       <c r="M30">
+        <v>90</v>
+      </c>
+      <c r="N30">
         <v>2</v>
       </c>
-      <c r="N30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1751,22 +1848,25 @@
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
       </c>
       <c r="M31">
+        <v>90</v>
+      </c>
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1795,25 +1895,28 @@
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
       </c>
       <c r="M32">
+        <v>90</v>
+      </c>
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="N32" t="s">
-        <v>25</v>
-      </c>
       <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1842,25 +1945,28 @@
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
       </c>
       <c r="M33">
+        <v>90</v>
+      </c>
+      <c r="N33">
         <v>2</v>
       </c>
-      <c r="N33" t="s">
-        <v>25</v>
-      </c>
       <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1889,25 +1995,28 @@
         <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
       </c>
       <c r="M34">
+        <v>90</v>
+      </c>
+      <c r="N34">
         <v>3</v>
       </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
       <c r="O34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1930,22 +2039,25 @@
         <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
       </c>
       <c r="M35">
+        <v>90</v>
+      </c>
+      <c r="N35">
         <v>1</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1968,22 +2080,25 @@
         <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
       </c>
       <c r="M36">
+        <v>90</v>
+      </c>
+      <c r="N36">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2006,22 +2121,25 @@
         <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
       </c>
       <c r="M37">
+        <v>90</v>
+      </c>
+      <c r="N37">
         <v>3</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2044,22 +2162,25 @@
         <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
       </c>
       <c r="M38">
+        <v>90</v>
+      </c>
+      <c r="N38">
         <v>1</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2082,22 +2203,25 @@
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
       </c>
       <c r="M39">
+        <v>90</v>
+      </c>
+      <c r="N39">
         <v>2</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -2120,22 +2244,25 @@
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
       </c>
       <c r="M40">
+        <v>90</v>
+      </c>
+      <c r="N40">
         <v>3</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2164,25 +2291,28 @@
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
       </c>
       <c r="M41">
+        <v>90</v>
+      </c>
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>30</v>
       </c>
-      <c r="O41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2211,25 +2341,28 @@
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
       </c>
       <c r="M42">
+        <v>90</v>
+      </c>
+      <c r="N42">
         <v>2</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>30</v>
       </c>
-      <c r="O42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2258,25 +2391,28 @@
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
       </c>
       <c r="M43">
+        <v>90</v>
+      </c>
+      <c r="N43">
         <v>3</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>30</v>
       </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2305,25 +2441,28 @@
         <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
       </c>
       <c r="M44">
+        <v>90</v>
+      </c>
+      <c r="N44">
         <v>1</v>
       </c>
-      <c r="N44" t="s">
-        <v>25</v>
-      </c>
       <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2352,25 +2491,28 @@
         <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
       </c>
       <c r="M45">
+        <v>90</v>
+      </c>
+      <c r="N45">
         <v>2</v>
       </c>
-      <c r="N45" t="s">
-        <v>25</v>
-      </c>
       <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2399,25 +2541,28 @@
         <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
       </c>
       <c r="M46">
+        <v>90</v>
+      </c>
+      <c r="N46">
         <v>3</v>
       </c>
-      <c r="N46" t="s">
-        <v>25</v>
-      </c>
       <c r="O46" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -2440,22 +2585,25 @@
         <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
       </c>
       <c r="M47">
+        <v>90</v>
+      </c>
+      <c r="N47">
         <v>1</v>
       </c>
-      <c r="N47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2478,22 +2626,25 @@
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
       </c>
       <c r="M48">
+        <v>90</v>
+      </c>
+      <c r="N48">
         <v>2</v>
       </c>
-      <c r="N48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2516,22 +2667,25 @@
         <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
       </c>
       <c r="M49">
+        <v>90</v>
+      </c>
+      <c r="N49">
         <v>3</v>
       </c>
-      <c r="N49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2554,22 +2708,25 @@
         <v>24</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
       </c>
       <c r="M50">
+        <v>90</v>
+      </c>
+      <c r="N50">
         <v>1</v>
       </c>
-      <c r="N50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2592,22 +2749,25 @@
         <v>24</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
       </c>
       <c r="M51">
+        <v>90</v>
+      </c>
+      <c r="N51">
         <v>2</v>
       </c>
-      <c r="N51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2630,18 +2790,21 @@
         <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
       </c>
       <c r="M52">
+        <v>90</v>
+      </c>
+      <c r="N52">
         <v>3</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>25</v>
       </c>
     </row>
